--- a/甘特图.xlsx
+++ b/甘特图.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SchoolworkInBIT\Unfinished\软件项目管理\第三次大作业\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SchoolworkInBIT\Unfinished\软件项目管理\第三次大作业\SoftwareProjectManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15850867-AA74-405F-996C-68A2B9C12216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72587FA2-B5A6-4A38-AF95-57E081CE315B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="8205" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,21 +31,21 @@
   </si>
   <si>
     <t>云南省企业就业失业数据采集系统</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>公司名称</t>
   </si>
   <si>
     <t>BTI</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>项目经理</t>
   </si>
   <si>
     <t>陈晓璐</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>日期</t>
@@ -269,13 +269,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF999999"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -340,6 +333,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="25">
@@ -757,237 +756,238 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="24" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="24" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1275,7 +1275,7 @@
   <dimension ref="A1:BO30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F2"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1285,42 +1285,42 @@
     <col min="8" max="67" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:67" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="78" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="76" t="s">
+      <c r="H1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="79" t="s">
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="80"/>
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
@@ -1363,40 +1363,40 @@
       <c r="BO1" s="2"/>
     </row>
     <row r="2" spans="1:67" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="80" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="76" t="s">
+      <c r="H2" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="81">
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="82">
         <v>45071</v>
       </c>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="77"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80"/>
+      <c r="Z2" s="80"/>
       <c r="AA2" s="4"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
@@ -1440,197 +1440,197 @@
       <c r="BO2" s="2"/>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="64" t="s">
+      <c r="E3" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="64" t="s">
+      <c r="F3" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="64" t="s">
+      <c r="G3" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="66" t="s">
+      <c r="H3" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="67" t="s">
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="68"/>
-      <c r="Z3" s="68"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="68"/>
-      <c r="AH3" s="68"/>
-      <c r="AI3" s="68"/>
-      <c r="AJ3" s="68"/>
-      <c r="AK3" s="69"/>
-      <c r="AL3" s="70" t="s">
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="66"/>
+      <c r="AK3" s="67"/>
+      <c r="AL3" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="65"/>
-      <c r="AR3" s="65"/>
-      <c r="AS3" s="65"/>
-      <c r="AT3" s="65"/>
-      <c r="AU3" s="65"/>
-      <c r="AV3" s="65"/>
-      <c r="AW3" s="65"/>
-      <c r="AX3" s="65"/>
-      <c r="AY3" s="65"/>
-      <c r="AZ3" s="65"/>
-      <c r="BA3" s="71" t="s">
+      <c r="AM3" s="60"/>
+      <c r="AN3" s="60"/>
+      <c r="AO3" s="60"/>
+      <c r="AP3" s="60"/>
+      <c r="AQ3" s="60"/>
+      <c r="AR3" s="60"/>
+      <c r="AS3" s="60"/>
+      <c r="AT3" s="60"/>
+      <c r="AU3" s="60"/>
+      <c r="AV3" s="60"/>
+      <c r="AW3" s="60"/>
+      <c r="AX3" s="60"/>
+      <c r="AY3" s="60"/>
+      <c r="AZ3" s="60"/>
+      <c r="BA3" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="BB3" s="65"/>
-      <c r="BC3" s="65"/>
-      <c r="BD3" s="65"/>
-      <c r="BE3" s="65"/>
-      <c r="BF3" s="65"/>
-      <c r="BG3" s="65"/>
-      <c r="BH3" s="65"/>
-      <c r="BI3" s="65"/>
-      <c r="BJ3" s="65"/>
-      <c r="BK3" s="65"/>
-      <c r="BL3" s="65"/>
-      <c r="BM3" s="65"/>
-      <c r="BN3" s="65"/>
-      <c r="BO3" s="72"/>
+      <c r="BB3" s="60"/>
+      <c r="BC3" s="60"/>
+      <c r="BD3" s="60"/>
+      <c r="BE3" s="60"/>
+      <c r="BF3" s="60"/>
+      <c r="BG3" s="60"/>
+      <c r="BH3" s="60"/>
+      <c r="BI3" s="60"/>
+      <c r="BJ3" s="60"/>
+      <c r="BK3" s="60"/>
+      <c r="BL3" s="60"/>
+      <c r="BM3" s="60"/>
+      <c r="BN3" s="60"/>
+      <c r="BO3" s="70"/>
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="73" t="s">
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="73" t="s">
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="73" t="s">
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="60"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="60"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="62" t="s">
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="X4" s="60"/>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="60"/>
-      <c r="AA4" s="61"/>
-      <c r="AB4" s="62" t="s">
+      <c r="X4" s="72"/>
+      <c r="Y4" s="72"/>
+      <c r="Z4" s="72"/>
+      <c r="AA4" s="73"/>
+      <c r="AB4" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="AC4" s="74"/>
-      <c r="AD4" s="74"/>
-      <c r="AE4" s="74"/>
-      <c r="AF4" s="75"/>
-      <c r="AG4" s="62" t="s">
+      <c r="AC4" s="75"/>
+      <c r="AD4" s="75"/>
+      <c r="AE4" s="75"/>
+      <c r="AF4" s="76"/>
+      <c r="AG4" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="AH4" s="60"/>
-      <c r="AI4" s="60"/>
-      <c r="AJ4" s="60"/>
-      <c r="AK4" s="61"/>
-      <c r="AL4" s="63" t="s">
+      <c r="AH4" s="72"/>
+      <c r="AI4" s="72"/>
+      <c r="AJ4" s="72"/>
+      <c r="AK4" s="73"/>
+      <c r="AL4" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="AM4" s="60"/>
-      <c r="AN4" s="60"/>
-      <c r="AO4" s="60"/>
-      <c r="AP4" s="61"/>
-      <c r="AQ4" s="63" t="s">
+      <c r="AM4" s="72"/>
+      <c r="AN4" s="72"/>
+      <c r="AO4" s="72"/>
+      <c r="AP4" s="73"/>
+      <c r="AQ4" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="AR4" s="60"/>
-      <c r="AS4" s="60"/>
-      <c r="AT4" s="60"/>
-      <c r="AU4" s="61"/>
-      <c r="AV4" s="63" t="s">
+      <c r="AR4" s="72"/>
+      <c r="AS4" s="72"/>
+      <c r="AT4" s="72"/>
+      <c r="AU4" s="73"/>
+      <c r="AV4" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="AW4" s="60"/>
-      <c r="AX4" s="60"/>
-      <c r="AY4" s="60"/>
-      <c r="AZ4" s="61"/>
-      <c r="BA4" s="59" t="s">
+      <c r="AW4" s="72"/>
+      <c r="AX4" s="72"/>
+      <c r="AY4" s="72"/>
+      <c r="AZ4" s="73"/>
+      <c r="BA4" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="BB4" s="60"/>
-      <c r="BC4" s="60"/>
-      <c r="BD4" s="60"/>
-      <c r="BE4" s="61"/>
-      <c r="BF4" s="59" t="s">
+      <c r="BB4" s="72"/>
+      <c r="BC4" s="72"/>
+      <c r="BD4" s="72"/>
+      <c r="BE4" s="73"/>
+      <c r="BF4" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="BG4" s="60"/>
-      <c r="BH4" s="60"/>
-      <c r="BI4" s="60"/>
-      <c r="BJ4" s="61"/>
-      <c r="BK4" s="59" t="s">
+      <c r="BG4" s="72"/>
+      <c r="BH4" s="72"/>
+      <c r="BI4" s="72"/>
+      <c r="BJ4" s="73"/>
+      <c r="BK4" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="BL4" s="60"/>
-      <c r="BM4" s="60"/>
-      <c r="BN4" s="60"/>
-      <c r="BO4" s="61"/>
+      <c r="BL4" s="72"/>
+      <c r="BM4" s="72"/>
+      <c r="BN4" s="72"/>
+      <c r="BO4" s="73"/>
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
       <c r="H5" s="5" t="s">
         <v>30</v>
       </c>
@@ -3856,6 +3856,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="W3:AK3"/>
+    <mergeCell ref="AL3:AZ3"/>
+    <mergeCell ref="BA3:BO3"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="R4:V4"/>
+    <mergeCell ref="W4:AA4"/>
+    <mergeCell ref="AB4:AF4"/>
+    <mergeCell ref="BK4:BO4"/>
+    <mergeCell ref="AG4:AK4"/>
+    <mergeCell ref="AL4:AP4"/>
+    <mergeCell ref="AQ4:AU4"/>
+    <mergeCell ref="AV4:AZ4"/>
+    <mergeCell ref="BA4:BE4"/>
+    <mergeCell ref="BF4:BJ4"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
@@ -3872,21 +3887,6 @@
     <mergeCell ref="E3:E5"/>
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="H3:V3"/>
-    <mergeCell ref="W3:AK3"/>
-    <mergeCell ref="AL3:AZ3"/>
-    <mergeCell ref="BA3:BO3"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="R4:V4"/>
-    <mergeCell ref="W4:AA4"/>
-    <mergeCell ref="AB4:AF4"/>
-    <mergeCell ref="BK4:BO4"/>
-    <mergeCell ref="AG4:AK4"/>
-    <mergeCell ref="AL4:AP4"/>
-    <mergeCell ref="AQ4:AU4"/>
-    <mergeCell ref="AV4:AZ4"/>
-    <mergeCell ref="BA4:BE4"/>
-    <mergeCell ref="BF4:BJ4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="G7:G13 G15:G30">
